--- a/Tables/did_reg_lg_total_d_noasist.xlsx
+++ b/Tables/did_reg_lg_total_d_noasist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F0BC0A-5609-4F2C-8300-55C0BAF045F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444D279-D40A-43E5-9B41-0AAB9A639F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{4551EA12-3B50-4DD3-ACE4-B1F2BC59C593}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Observations</t>
   </si>
@@ -53,15 +53,6 @@
   </si>
   <si>
     <t>Luminosity</t>
-  </si>
-  <si>
-    <t>(3) + controls</t>
-  </si>
-  <si>
-    <t>(3) + quarter of imp</t>
-  </si>
-  <si>
-    <t>(4) + quarter of imp</t>
   </si>
   <si>
     <t>Four years prior</t>
@@ -87,6 +78,9 @@
   <si>
     <t>Four years after</t>
   </si>
+  <si>
+    <t>Lum + controls</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,18 +135,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -161,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,12 +157,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -235,93 +214,57 @@
           <cell r="I2" t="str">
             <v>(8)</v>
           </cell>
-          <cell r="J2" t="str">
-            <v>(9)</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>(10)</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>(11)</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>(12)</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-0.049</v>
+            <v>-0.048</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-0.0025</v>
+            <v>0.0048</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.0034</v>
+            <v>0.0031</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-0.0049</v>
+            <v>0.058*</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.059</v>
+            <v>-0.011</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.058</v>
+            <v>0.0081</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-0.013</v>
+            <v>0.0015</v>
           </cell>
           <cell r="I5" t="str">
-            <v>0.0010</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>-0.0051</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>-0.0057</v>
-          </cell>
-          <cell r="L5" t="str">
             <v>0.056</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>0.057</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(0.066)</v>
+            <v>(0.062)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.039)</v>
+            <v>(0.036)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.039)</v>
+            <v>(0.037)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.040)</v>
+            <v>(0.035)</v>
           </cell>
           <cell r="F6" t="str">
+            <v>(0.057)</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>(0.034)</v>
+          </cell>
+          <cell r="H6" t="str">
             <v>(0.037)</v>
           </cell>
-          <cell r="G6" t="str">
-            <v>(0.037)</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>(0.061)</v>
-          </cell>
           <cell r="I6" t="str">
-            <v>(0.036)</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>(0.038)</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>(0.039)</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>(0.036)</v>
-          </cell>
-          <cell r="M6" t="str">
-            <v>(0.037)</v>
+            <v>(0.035)</v>
           </cell>
         </row>
         <row r="8">
@@ -329,569 +272,389 @@
             <v>-0.044</v>
           </cell>
           <cell r="C8" t="str">
-            <v>0.010</v>
+            <v>0.015</v>
           </cell>
           <cell r="D8" t="str">
-            <v>0.010</v>
+            <v>0.014</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.0084</v>
+            <v>0.040</v>
           </cell>
           <cell r="F8" t="str">
-            <v>0.040</v>
+            <v>-0.017</v>
           </cell>
           <cell r="G8" t="str">
-            <v>0.038</v>
+            <v>0.020</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-0.016</v>
+            <v>0.013</v>
           </cell>
           <cell r="I8" t="str">
-            <v>0.016</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>0.0088</v>
-          </cell>
-          <cell r="K8" t="str">
-            <v>0.0083</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>0.038</v>
-          </cell>
-          <cell r="M8" t="str">
-            <v>0.038</v>
+            <v>0.039</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>(0.053)</v>
+            <v>(0.050)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.043)</v>
+            <v>(0.041)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.043)</v>
+            <v>(0.041)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.043)</v>
+            <v>(0.041)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.043)</v>
+            <v>(0.047)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.044)</v>
+            <v>(0.036)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(0.050)</v>
+            <v>(0.041)</v>
           </cell>
           <cell r="I9" t="str">
-            <v>(0.038)</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v>(0.043)</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>(0.043)</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>(0.043)</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>(0.044)</v>
+            <v>(0.041)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-0.036</v>
+            <v>-0.038</v>
           </cell>
           <cell r="C11" t="str">
+            <v>-0.0077</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>-0.0080</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>0.0040</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>-0.020</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>-0.0012</v>
+          </cell>
+          <cell r="H11" t="str">
             <v>-0.0082</v>
           </cell>
-          <cell r="D11" t="str">
-            <v>-0.0077</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>-0.0093</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>0.0063</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>0.0047</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>-0.018</v>
-          </cell>
           <cell r="I11" t="str">
-            <v>-0.0013</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>-0.0088</v>
-          </cell>
-          <cell r="K11" t="str">
-            <v>-0.0095</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>0.0049</v>
-          </cell>
-          <cell r="M11" t="str">
-            <v>0.0043</v>
+            <v>0.0036</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>(0.029)</v>
+            <v>(0.028)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(0.024)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(0.024)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(0.024)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="F12" t="str">
-            <v>(0.024)</v>
+            <v>(0.027)</v>
           </cell>
           <cell r="G12" t="str">
-            <v>(0.024)</v>
+            <v>(0.021)</v>
           </cell>
           <cell r="H12" t="str">
-            <v>(0.029)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="I12" t="str">
-            <v>(0.022)</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>(0.024)</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>(0.024)</v>
-          </cell>
-          <cell r="L12" t="str">
-            <v>(0.024)</v>
-          </cell>
-          <cell r="M12" t="str">
-            <v>(0.024)</v>
+            <v>(0.023)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>0.0035</v>
+            <v>0.00090</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-0.026</v>
+            <v>-0.028</v>
           </cell>
           <cell r="D14" t="str">
-            <v>-0.028</v>
+            <v>-0.030</v>
           </cell>
           <cell r="E14" t="str">
-            <v>-0.028</v>
+            <v>-0.040*</v>
           </cell>
           <cell r="F14" t="str">
-            <v>-0.039*</v>
+            <v>-0.0043</v>
           </cell>
           <cell r="G14" t="str">
-            <v>-0.039*</v>
+            <v>-0.022</v>
           </cell>
           <cell r="H14" t="str">
-            <v>-0.0018</v>
+            <v>-0.030</v>
           </cell>
           <cell r="I14" t="str">
-            <v>-0.021</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v>-0.027</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>-0.028</v>
-          </cell>
-          <cell r="L14" t="str">
-            <v>-0.038*</v>
-          </cell>
-          <cell r="M14" t="str">
-            <v>-0.039*</v>
+            <v>-0.040*</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
+            <v>(0.019)</v>
+          </cell>
+          <cell r="C15" t="str">
             <v>(0.021)</v>
           </cell>
-          <cell r="C15" t="str">
+          <cell r="D15" t="str">
             <v>(0.022)</v>
           </cell>
-          <cell r="D15" t="str">
-            <v>(0.023)</v>
-          </cell>
           <cell r="E15" t="str">
-            <v>(0.023)</v>
+            <v>(0.021)</v>
           </cell>
           <cell r="F15" t="str">
-            <v>(0.023)</v>
+            <v>(0.017)</v>
           </cell>
           <cell r="G15" t="str">
-            <v>(0.023)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="H15" t="str">
-            <v>(0.018)</v>
+            <v>(0.021)</v>
           </cell>
           <cell r="I15" t="str">
             <v>(0.021)</v>
           </cell>
-          <cell r="J15" t="str">
-            <v>(0.022)</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>(0.023)</v>
-          </cell>
-          <cell r="L15" t="str">
-            <v>(0.022)</v>
-          </cell>
-          <cell r="M15" t="str">
-            <v>(0.022)</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>0.034</v>
+            <v>0.025</v>
           </cell>
           <cell r="C17" t="str">
-            <v>-0.021</v>
+            <v>-0.029</v>
           </cell>
           <cell r="D17" t="str">
-            <v>-0.022</v>
+            <v>-0.031</v>
           </cell>
           <cell r="E17" t="str">
-            <v>-0.022</v>
+            <v>-0.049*</v>
           </cell>
           <cell r="F17" t="str">
-            <v>-0.043</v>
+            <v>0.017</v>
           </cell>
           <cell r="G17" t="str">
-            <v>-0.042</v>
+            <v>-0.017</v>
           </cell>
           <cell r="H17" t="str">
-            <v>0.025</v>
+            <v>-0.028</v>
           </cell>
           <cell r="I17" t="str">
-            <v>-0.010</v>
-          </cell>
-          <cell r="J17" t="str">
-            <v>-0.021</v>
-          </cell>
-          <cell r="K17" t="str">
-            <v>-0.021</v>
-          </cell>
-          <cell r="L17" t="str">
-            <v>-0.041</v>
-          </cell>
-          <cell r="M17" t="str">
-            <v>-0.041</v>
+            <v>-0.046*</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>(0.027)</v>
+            <v>(0.025)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(0.030)</v>
+            <v>(0.028)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(0.031)</v>
+            <v>(0.029)</v>
           </cell>
           <cell r="E18" t="str">
-            <v>(0.031)</v>
+            <v>(0.028)</v>
           </cell>
           <cell r="F18" t="str">
-            <v>(0.030)</v>
+            <v>(0.022)</v>
           </cell>
           <cell r="G18" t="str">
-            <v>(0.030)</v>
+            <v>(0.026)</v>
           </cell>
           <cell r="H18" t="str">
-            <v>(0.024)</v>
+            <v>(0.029)</v>
           </cell>
           <cell r="I18" t="str">
             <v>(0.028)</v>
           </cell>
-          <cell r="J18" t="str">
-            <v>(0.030)</v>
-          </cell>
-          <cell r="K18" t="str">
-            <v>(0.031)</v>
-          </cell>
-          <cell r="L18" t="str">
-            <v>(0.029)</v>
-          </cell>
-          <cell r="M18" t="str">
-            <v>(0.030)</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>0.049</v>
+            <v>0.041</v>
           </cell>
           <cell r="C20" t="str">
-            <v>-0.028</v>
+            <v>-0.033</v>
           </cell>
           <cell r="D20" t="str">
-            <v>-0.029</v>
+            <v>-0.034</v>
           </cell>
           <cell r="E20" t="str">
-            <v>-0.027</v>
+            <v>-0.057*</v>
           </cell>
           <cell r="F20" t="str">
-            <v>-0.054</v>
+            <v>0.025</v>
           </cell>
           <cell r="G20" t="str">
-            <v>-0.052</v>
+            <v>-0.022</v>
           </cell>
           <cell r="H20" t="str">
-            <v>0.032</v>
+            <v>-0.032</v>
           </cell>
           <cell r="I20" t="str">
-            <v>-0.018</v>
-          </cell>
-          <cell r="J20" t="str">
-            <v>-0.027</v>
-          </cell>
-          <cell r="K20" t="str">
-            <v>-0.026</v>
-          </cell>
-          <cell r="L20" t="str">
-            <v>-0.052</v>
-          </cell>
-          <cell r="M20" t="str">
-            <v>-0.051</v>
+            <v>-0.054*</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>(0.043)</v>
+            <v>(0.041)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(0.036)</v>
+            <v>(0.033)</v>
           </cell>
           <cell r="D21" t="str">
-            <v>(0.036)</v>
+            <v>(0.034)</v>
           </cell>
           <cell r="E21" t="str">
-            <v>(0.037)</v>
+            <v>(0.032)</v>
           </cell>
           <cell r="F21" t="str">
+            <v>(0.038)</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>(0.030)</v>
+          </cell>
+          <cell r="H21" t="str">
             <v>(0.034)</v>
           </cell>
-          <cell r="G21" t="str">
-            <v>(0.035)</v>
-          </cell>
-          <cell r="H21" t="str">
-            <v>(0.040)</v>
-          </cell>
           <cell r="I21" t="str">
-            <v>(0.033)</v>
-          </cell>
-          <cell r="J21" t="str">
-            <v>(0.034)</v>
-          </cell>
-          <cell r="K21" t="str">
-            <v>(0.036)</v>
-          </cell>
-          <cell r="L21" t="str">
-            <v>(0.033)</v>
-          </cell>
-          <cell r="M21" t="str">
-            <v>(0.034)</v>
+            <v>(0.032)</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>0.10*</v>
+            <v>0.090</v>
           </cell>
           <cell r="C23" t="str">
-            <v>0.011</v>
+            <v>0.0030</v>
           </cell>
           <cell r="D23" t="str">
-            <v>0.0093</v>
+            <v>0.0011</v>
           </cell>
           <cell r="E23" t="str">
-            <v>0.012</v>
+            <v>-0.024</v>
           </cell>
           <cell r="F23" t="str">
-            <v>-0.019</v>
+            <v>0.062</v>
           </cell>
           <cell r="G23" t="str">
-            <v>-0.015</v>
+            <v>0.0085</v>
           </cell>
           <cell r="H23" t="str">
-            <v>0.075</v>
+            <v>0.0022</v>
           </cell>
           <cell r="I23" t="str">
-            <v>0.015</v>
-          </cell>
-          <cell r="J23" t="str">
-            <v>0.011</v>
-          </cell>
-          <cell r="K23" t="str">
-            <v>0.011</v>
-          </cell>
-          <cell r="L23" t="str">
-            <v>-0.017</v>
-          </cell>
-          <cell r="M23" t="str">
-            <v>-0.015</v>
+            <v>-0.022</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>(0.061)</v>
+            <v>(0.059)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(0.051)</v>
+            <v>(0.048)</v>
           </cell>
           <cell r="D24" t="str">
-            <v>(0.051)</v>
+            <v>(0.050)</v>
           </cell>
           <cell r="E24" t="str">
+            <v>(0.048)</v>
+          </cell>
+          <cell r="F24" t="str">
             <v>(0.052)</v>
           </cell>
-          <cell r="F24" t="str">
-            <v>(0.050)</v>
-          </cell>
           <cell r="G24" t="str">
-            <v>(0.051)</v>
+            <v>(0.042)</v>
           </cell>
           <cell r="H24" t="str">
-            <v>(0.054)</v>
+            <v>(0.049)</v>
           </cell>
           <cell r="I24" t="str">
-            <v>(0.045)</v>
-          </cell>
-          <cell r="J24" t="str">
-            <v>(0.049)</v>
-          </cell>
-          <cell r="K24" t="str">
-            <v>(0.052)</v>
-          </cell>
-          <cell r="L24" t="str">
-            <v>(0.048)</v>
-          </cell>
-          <cell r="M24" t="str">
-            <v>(0.050)</v>
+            <v>(0.047)</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>0.086</v>
+            <v>0.072</v>
           </cell>
           <cell r="C26" t="str">
-            <v>-0.030</v>
+            <v>-0.035</v>
           </cell>
           <cell r="D26" t="str">
-            <v>-0.030</v>
+            <v>-0.036</v>
           </cell>
           <cell r="E26" t="str">
-            <v>-0.027</v>
+            <v>-0.056</v>
           </cell>
           <cell r="F26" t="str">
-            <v>-0.053</v>
+            <v>0.034</v>
           </cell>
           <cell r="G26" t="str">
-            <v>-0.048</v>
+            <v>-0.033</v>
           </cell>
           <cell r="H26" t="str">
-            <v>0.049</v>
+            <v>-0.035</v>
           </cell>
           <cell r="I26" t="str">
-            <v>-0.028</v>
-          </cell>
-          <cell r="J26" t="str">
-            <v>-0.028</v>
-          </cell>
-          <cell r="K26" t="str">
-            <v>-0.028</v>
-          </cell>
-          <cell r="L26" t="str">
-            <v>-0.050</v>
-          </cell>
-          <cell r="M26" t="str">
-            <v>-0.048</v>
+            <v>-0.054</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>(0.070)</v>
+            <v>(0.067)</v>
           </cell>
           <cell r="C27" t="str">
-            <v>(0.057)</v>
+            <v>(0.054)</v>
           </cell>
           <cell r="D27" t="str">
-            <v>(0.057)</v>
+            <v>(0.056)</v>
           </cell>
           <cell r="E27" t="str">
+            <v>(0.055)</v>
+          </cell>
+          <cell r="F27" t="str">
             <v>(0.059)</v>
           </cell>
-          <cell r="F27" t="str">
-            <v>(0.057)</v>
-          </cell>
           <cell r="G27" t="str">
-            <v>(0.058)</v>
+            <v>(0.048)</v>
           </cell>
           <cell r="H27" t="str">
-            <v>(0.062)</v>
+            <v>(0.055)</v>
           </cell>
           <cell r="I27" t="str">
-            <v>(0.051)</v>
-          </cell>
-          <cell r="J27" t="str">
-            <v>(0.054)</v>
-          </cell>
-          <cell r="K27" t="str">
-            <v>(0.058)</v>
-          </cell>
-          <cell r="L27" t="str">
             <v>(0.055)</v>
-          </cell>
-          <cell r="M27" t="str">
-            <v>(0.057)</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>67981</v>
+            <v>80857</v>
           </cell>
           <cell r="C29" t="str">
-            <v>67981</v>
+            <v>80857</v>
           </cell>
           <cell r="D29" t="str">
-            <v>67889</v>
+            <v>73944</v>
           </cell>
           <cell r="E29" t="str">
-            <v>62913</v>
+            <v>73944</v>
           </cell>
           <cell r="F29" t="str">
-            <v>67889</v>
+            <v>93726</v>
           </cell>
           <cell r="G29" t="str">
-            <v>62913</v>
+            <v>93726</v>
           </cell>
           <cell r="H29" t="str">
-            <v>77331</v>
+            <v>79612</v>
           </cell>
           <cell r="I29" t="str">
-            <v>77331</v>
-          </cell>
-          <cell r="J29" t="str">
-            <v>77191</v>
-          </cell>
-          <cell r="K29" t="str">
-            <v>66839</v>
-          </cell>
-          <cell r="L29" t="str">
-            <v>77191</v>
-          </cell>
-          <cell r="M29" t="str">
-            <v>66839</v>
+            <v>79612</v>
           </cell>
         </row>
         <row r="30">
@@ -899,40 +662,28 @@
             <v>R-sq</v>
           </cell>
           <cell r="B30" t="str">
-            <v>0.316</v>
+            <v>0.322</v>
           </cell>
           <cell r="C30" t="str">
-            <v>0.417</v>
+            <v>0.429</v>
           </cell>
           <cell r="D30" t="str">
-            <v>0.418</v>
+            <v>0.433</v>
           </cell>
           <cell r="E30" t="str">
-            <v>0.422</v>
+            <v>0.437</v>
           </cell>
           <cell r="F30" t="str">
-            <v>0.422</v>
+            <v>0.308</v>
           </cell>
           <cell r="G30" t="str">
-            <v>0.427</v>
+            <v>0.421</v>
           </cell>
           <cell r="H30" t="str">
-            <v>0.303</v>
+            <v>0.429</v>
           </cell>
           <cell r="I30" t="str">
-            <v>0.411</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v>0.409</v>
-          </cell>
-          <cell r="K30" t="str">
-            <v>0.418</v>
-          </cell>
-          <cell r="L30" t="str">
-            <v>0.414</v>
-          </cell>
-          <cell r="M30" t="str">
-            <v>0.423</v>
+            <v>0.433</v>
           </cell>
         </row>
         <row r="31">
@@ -940,78 +691,54 @@
             <v>DepVarMean</v>
           </cell>
           <cell r="B31" t="str">
-            <v>1.56</v>
+            <v>1.54</v>
           </cell>
           <cell r="C31" t="str">
-            <v>1.56</v>
+            <v>1.54</v>
           </cell>
           <cell r="D31" t="str">
-            <v>1.56</v>
+            <v>1.62</v>
           </cell>
           <cell r="E31" t="str">
             <v>1.62</v>
           </cell>
           <cell r="F31" t="str">
-            <v>1.56</v>
+            <v>1.47</v>
           </cell>
           <cell r="G31" t="str">
-            <v>1.62</v>
+            <v>1.47</v>
           </cell>
           <cell r="H31" t="str">
-            <v>1.50</v>
+            <v>1.58</v>
           </cell>
           <cell r="I31" t="str">
-            <v>1.50</v>
-          </cell>
-          <cell r="J31" t="str">
-            <v>1.50</v>
-          </cell>
-          <cell r="K31" t="str">
-            <v>1.59</v>
-          </cell>
-          <cell r="L31" t="str">
-            <v>1.50</v>
-          </cell>
-          <cell r="M31" t="str">
-            <v>1.59</v>
+            <v>1.58</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>1912</v>
+            <v>1914</v>
           </cell>
           <cell r="C32" t="str">
-            <v>1912</v>
+            <v>1914</v>
           </cell>
           <cell r="D32" t="str">
-            <v>1910</v>
+            <v>1699</v>
           </cell>
           <cell r="E32" t="str">
-            <v>1677</v>
+            <v>1699</v>
           </cell>
           <cell r="F32" t="str">
-            <v>1910</v>
+            <v>2427</v>
           </cell>
           <cell r="G32" t="str">
-            <v>1677</v>
+            <v>2427</v>
           </cell>
           <cell r="H32" t="str">
-            <v>2425</v>
+            <v>2201</v>
           </cell>
           <cell r="I32" t="str">
-            <v>2425</v>
-          </cell>
-          <cell r="J32" t="str">
-            <v>2422</v>
-          </cell>
-          <cell r="K32" t="str">
-            <v>2132</v>
-          </cell>
-          <cell r="L32" t="str">
-            <v>2422</v>
-          </cell>
-          <cell r="M32" t="str">
-            <v>2132</v>
+            <v>2201</v>
           </cell>
         </row>
       </sheetData>
@@ -1317,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E19699-E6D3-4FD3-B8B6-2EED5A152298}">
-  <dimension ref="A3:N27"/>
+  <dimension ref="A3:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N26"/>
+      <selection activeCell="A3" sqref="A3:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1330,12 +1057,12 @@
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1346,195 +1073,135 @@
         <v>4</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
         <f>[1]did_reg_lg_total_d_noasist!A2</f>
         <v/>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E2</f>
         <v>(4)</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F2</f>
         <v>(5)</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="H4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G2</f>
         <v>(6)</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="str">
+      <c r="I4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H2</f>
         <v>(7)</v>
       </c>
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I2</f>
         <v>(8)</v>
       </c>
-      <c r="K4" s="9" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J2</f>
-        <v>(9)</v>
-      </c>
-      <c r="L4" s="9" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K2</f>
-        <v>(10)</v>
-      </c>
-      <c r="M4" s="9" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L2</f>
-        <v>(11)</v>
-      </c>
-      <c r="N4" s="9" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M2</f>
-        <v>(12)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B5</f>
-        <v>-0.049</v>
+        <v>-0.048</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C5</f>
-        <v>-0.0025</v>
+        <v>0.0048</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D5</f>
-        <v>-0.0034</v>
+        <v>0.0031</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E5</f>
-        <v>-0.0049</v>
-      </c>
-      <c r="F5" s="1" t="str">
+        <v>0.058*</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F5</f>
-        <v>0.059</v>
-      </c>
-      <c r="G5" s="1" t="str">
+        <v>-0.011</v>
+      </c>
+      <c r="H5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G5</f>
-        <v>0.058</v>
+        <v>0.0081</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H5</f>
-        <v>-0.013</v>
+        <v>0.0015</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I5</f>
-        <v>0.0010</v>
-      </c>
-      <c r="K5" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J5</f>
-        <v>-0.0051</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K5</f>
-        <v>-0.0057</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L5</f>
         <v>0.056</v>
       </c>
-      <c r="N5" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M5</f>
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B6</f>
-        <v>(0.066)</v>
+        <v>(0.062)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C6</f>
-        <v>(0.039)</v>
+        <v>(0.036)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D6</f>
-        <v>(0.039)</v>
+        <v>(0.037)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E6</f>
-        <v>(0.040)</v>
-      </c>
-      <c r="F6" s="1" t="str">
+        <v>(0.035)</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F6</f>
-        <v>(0.037)</v>
-      </c>
-      <c r="G6" s="1" t="str">
+        <v>(0.057)</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G6</f>
-        <v>(0.037)</v>
+        <v>(0.034)</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H6</f>
-        <v>(0.061)</v>
+        <v>(0.037)</v>
       </c>
       <c r="J6" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I6</f>
-        <v>(0.036)</v>
-      </c>
-      <c r="K6" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J6</f>
-        <v>(0.038)</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K6</f>
-        <v>(0.039)</v>
-      </c>
-      <c r="M6" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L6</f>
-        <v>(0.036)</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M6</f>
-        <v>(0.037)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>(0.035)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B8</f>
@@ -1542,950 +1209,654 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C8</f>
-        <v>0.010</v>
+        <v>0.015</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D8</f>
-        <v>0.010</v>
+        <v>0.014</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E8</f>
-        <v>0.0084</v>
-      </c>
-      <c r="F7" s="1" t="str">
+        <v>0.040</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F8</f>
-        <v>0.040</v>
-      </c>
-      <c r="G7" s="1" t="str">
+        <v>-0.017</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G8</f>
-        <v>0.038</v>
+        <v>0.020</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H8</f>
-        <v>-0.016</v>
+        <v>0.013</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I8</f>
-        <v>0.016</v>
-      </c>
-      <c r="K7" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J8</f>
-        <v>0.0088</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K8</f>
-        <v>0.0083</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L8</f>
-        <v>0.038</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M8</f>
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B9</f>
-        <v>(0.053)</v>
+        <v>(0.050)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C9</f>
-        <v>(0.043)</v>
+        <v>(0.041)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D9</f>
-        <v>(0.043)</v>
+        <v>(0.041)</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E9</f>
-        <v>(0.043)</v>
-      </c>
-      <c r="F8" s="1" t="str">
+        <v>(0.041)</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F9</f>
-        <v>(0.043)</v>
-      </c>
-      <c r="G8" s="1" t="str">
+        <v>(0.047)</v>
+      </c>
+      <c r="H8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G9</f>
-        <v>(0.044)</v>
+        <v>(0.036)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H9</f>
-        <v>(0.050)</v>
+        <v>(0.041)</v>
       </c>
       <c r="J8" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I9</f>
-        <v>(0.038)</v>
-      </c>
-      <c r="K8" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J9</f>
-        <v>(0.043)</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K9</f>
-        <v>(0.043)</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L9</f>
-        <v>(0.043)</v>
-      </c>
-      <c r="N8" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M9</f>
-        <v>(0.044)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>(0.041)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B11</f>
-        <v>-0.036</v>
+        <v>-0.038</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C11</f>
-        <v>-0.0082</v>
+        <v>-0.0077</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D11</f>
-        <v>-0.0077</v>
+        <v>-0.0080</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E11</f>
-        <v>-0.0093</v>
-      </c>
-      <c r="F9" s="1" t="str">
+        <v>0.0040</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F11</f>
-        <v>0.0063</v>
-      </c>
-      <c r="G9" s="1" t="str">
+        <v>-0.020</v>
+      </c>
+      <c r="H9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G11</f>
-        <v>0.0047</v>
+        <v>-0.0012</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H11</f>
-        <v>-0.018</v>
+        <v>-0.0082</v>
       </c>
       <c r="J9" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I11</f>
-        <v>-0.0013</v>
-      </c>
-      <c r="K9" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J11</f>
-        <v>-0.0088</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K11</f>
-        <v>-0.0095</v>
-      </c>
-      <c r="M9" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L11</f>
-        <v>0.0049</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M11</f>
-        <v>0.0043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.0036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B12</f>
-        <v>(0.029)</v>
+        <v>(0.028)</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C12</f>
-        <v>(0.024)</v>
+        <v>(0.023)</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D12</f>
-        <v>(0.024)</v>
+        <v>(0.023)</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E12</f>
-        <v>(0.024)</v>
-      </c>
-      <c r="F10" s="1" t="str">
+        <v>(0.023)</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F12</f>
-        <v>(0.024)</v>
-      </c>
-      <c r="G10" s="1" t="str">
+        <v>(0.027)</v>
+      </c>
+      <c r="H10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G12</f>
-        <v>(0.024)</v>
+        <v>(0.021)</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H12</f>
-        <v>(0.029)</v>
+        <v>(0.023)</v>
       </c>
       <c r="J10" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I12</f>
-        <v>(0.022)</v>
-      </c>
-      <c r="K10" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J12</f>
-        <v>(0.024)</v>
-      </c>
-      <c r="L10" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K12</f>
-        <v>(0.024)</v>
-      </c>
-      <c r="M10" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L12</f>
-        <v>(0.024)</v>
-      </c>
-      <c r="N10" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M12</f>
-        <v>(0.024)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>(0.023)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B14</f>
-        <v>0.0035</v>
+        <v>0.00090</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C14</f>
-        <v>-0.026</v>
+        <v>-0.028</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D14</f>
-        <v>-0.028</v>
+        <v>-0.030</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E14</f>
-        <v>-0.028</v>
-      </c>
-      <c r="F12" s="1" t="str">
+        <v>-0.040*</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F14</f>
-        <v>-0.039*</v>
-      </c>
-      <c r="G12" s="1" t="str">
+        <v>-0.0043</v>
+      </c>
+      <c r="H12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G14</f>
-        <v>-0.039*</v>
+        <v>-0.022</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H14</f>
-        <v>-0.0018</v>
+        <v>-0.030</v>
       </c>
       <c r="J12" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I14</f>
-        <v>-0.021</v>
-      </c>
-      <c r="K12" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J14</f>
-        <v>-0.027</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K14</f>
-        <v>-0.028</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L14</f>
-        <v>-0.038*</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M14</f>
-        <v>-0.039*</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.040*</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B15</f>
-        <v>(0.021)</v>
+        <v>(0.019)</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C15</f>
-        <v>(0.022)</v>
+        <v>(0.021)</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D15</f>
-        <v>(0.023)</v>
+        <v>(0.022)</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E15</f>
-        <v>(0.023)</v>
-      </c>
-      <c r="F13" s="1" t="str">
+        <v>(0.021)</v>
+      </c>
+      <c r="G13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F15</f>
-        <v>(0.023)</v>
-      </c>
-      <c r="G13" s="1" t="str">
+        <v>(0.017)</v>
+      </c>
+      <c r="H13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G15</f>
-        <v>(0.023)</v>
+        <v>(0.019)</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H15</f>
-        <v>(0.018)</v>
+        <v>(0.021)</v>
       </c>
       <c r="J13" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I15</f>
         <v>(0.021)</v>
       </c>
-      <c r="K13" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J15</f>
-        <v>(0.022)</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K15</f>
-        <v>(0.023)</v>
-      </c>
-      <c r="M13" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L15</f>
-        <v>(0.022)</v>
-      </c>
-      <c r="N13" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M15</f>
-        <v>(0.022)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B17</f>
-        <v>0.034</v>
+        <v>0.025</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C17</f>
-        <v>-0.021</v>
+        <v>-0.029</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D17</f>
-        <v>-0.022</v>
+        <v>-0.031</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E17</f>
-        <v>-0.022</v>
-      </c>
-      <c r="F14" s="1" t="str">
+        <v>-0.049*</v>
+      </c>
+      <c r="G14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F17</f>
-        <v>-0.043</v>
-      </c>
-      <c r="G14" s="1" t="str">
+        <v>0.017</v>
+      </c>
+      <c r="H14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G17</f>
-        <v>-0.042</v>
+        <v>-0.017</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H17</f>
-        <v>0.025</v>
+        <v>-0.028</v>
       </c>
       <c r="J14" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I17</f>
-        <v>-0.010</v>
-      </c>
-      <c r="K14" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J17</f>
-        <v>-0.021</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K17</f>
-        <v>-0.021</v>
-      </c>
-      <c r="M14" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L17</f>
-        <v>-0.041</v>
-      </c>
-      <c r="N14" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M17</f>
-        <v>-0.041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.046*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B18</f>
-        <v>(0.027)</v>
+        <v>(0.025)</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C18</f>
-        <v>(0.030)</v>
+        <v>(0.028)</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D18</f>
-        <v>(0.031)</v>
+        <v>(0.029)</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E18</f>
-        <v>(0.031)</v>
-      </c>
-      <c r="F15" s="1" t="str">
+        <v>(0.028)</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F18</f>
-        <v>(0.030)</v>
-      </c>
-      <c r="G15" s="1" t="str">
+        <v>(0.022)</v>
+      </c>
+      <c r="H15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G18</f>
-        <v>(0.030)</v>
+        <v>(0.026)</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H18</f>
-        <v>(0.024)</v>
+        <v>(0.029)</v>
       </c>
       <c r="J15" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I18</f>
         <v>(0.028)</v>
       </c>
-      <c r="K15" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J18</f>
-        <v>(0.030)</v>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K18</f>
-        <v>(0.031)</v>
-      </c>
-      <c r="M15" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L18</f>
-        <v>(0.029)</v>
-      </c>
-      <c r="N15" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M18</f>
-        <v>(0.030)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B20</f>
-        <v>0.049</v>
+        <v>0.041</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C20</f>
-        <v>-0.028</v>
+        <v>-0.033</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D20</f>
-        <v>-0.029</v>
+        <v>-0.034</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E20</f>
-        <v>-0.027</v>
-      </c>
-      <c r="F16" s="1" t="str">
+        <v>-0.057*</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F20</f>
-        <v>-0.054</v>
-      </c>
-      <c r="G16" s="1" t="str">
+        <v>0.025</v>
+      </c>
+      <c r="H16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G20</f>
-        <v>-0.052</v>
+        <v>-0.022</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H20</f>
-        <v>0.032</v>
+        <v>-0.032</v>
       </c>
       <c r="J16" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I20</f>
-        <v>-0.018</v>
-      </c>
-      <c r="K16" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J20</f>
-        <v>-0.027</v>
-      </c>
-      <c r="L16" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K20</f>
-        <v>-0.026</v>
-      </c>
-      <c r="M16" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L20</f>
-        <v>-0.052</v>
-      </c>
-      <c r="N16" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M20</f>
-        <v>-0.051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.054*</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B21</f>
-        <v>(0.043)</v>
+        <v>(0.041)</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C21</f>
-        <v>(0.036)</v>
+        <v>(0.033)</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D21</f>
-        <v>(0.036)</v>
+        <v>(0.034)</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E21</f>
-        <v>(0.037)</v>
-      </c>
-      <c r="F17" s="1" t="str">
+        <v>(0.032)</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F21</f>
-        <v>(0.034)</v>
-      </c>
-      <c r="G17" s="1" t="str">
+        <v>(0.038)</v>
+      </c>
+      <c r="H17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G21</f>
-        <v>(0.035)</v>
+        <v>(0.030)</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H21</f>
-        <v>(0.040)</v>
+        <v>(0.034)</v>
       </c>
       <c r="J17" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I21</f>
-        <v>(0.033)</v>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J21</f>
-        <v>(0.034)</v>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K21</f>
-        <v>(0.036)</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L21</f>
-        <v>(0.033)</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M21</f>
-        <v>(0.034)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>(0.032)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B23</f>
-        <v>0.10*</v>
+        <v>0.090</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C23</f>
-        <v>0.011</v>
+        <v>0.0030</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D23</f>
-        <v>0.0093</v>
+        <v>0.0011</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E23</f>
-        <v>0.012</v>
-      </c>
-      <c r="F18" s="1" t="str">
+        <v>-0.024</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F23</f>
-        <v>-0.019</v>
-      </c>
-      <c r="G18" s="1" t="str">
+        <v>0.062</v>
+      </c>
+      <c r="H18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G23</f>
-        <v>-0.015</v>
+        <v>0.0085</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H23</f>
-        <v>0.075</v>
+        <v>0.0022</v>
       </c>
       <c r="J18" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I23</f>
-        <v>0.015</v>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J23</f>
-        <v>0.011</v>
-      </c>
-      <c r="L18" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K23</f>
-        <v>0.011</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L23</f>
-        <v>-0.017</v>
-      </c>
-      <c r="N18" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M23</f>
-        <v>-0.015</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B24</f>
-        <v>(0.061)</v>
+        <v>(0.059)</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C24</f>
-        <v>(0.051)</v>
+        <v>(0.048)</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D24</f>
-        <v>(0.051)</v>
+        <v>(0.050)</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E24</f>
+        <v>(0.048)</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>[1]did_reg_lg_total_d_noasist!F24</f>
         <v>(0.052)</v>
       </c>
-      <c r="F19" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!F24</f>
-        <v>(0.050)</v>
-      </c>
-      <c r="G19" s="1" t="str">
+      <c r="H19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G24</f>
-        <v>(0.051)</v>
+        <v>(0.042)</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H24</f>
-        <v>(0.054)</v>
+        <v>(0.049)</v>
       </c>
       <c r="J19" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I24</f>
-        <v>(0.045)</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J24</f>
-        <v>(0.049)</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K24</f>
-        <v>(0.052)</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L24</f>
-        <v>(0.048)</v>
-      </c>
-      <c r="N19" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M24</f>
-        <v>(0.050)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>(0.047)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B26</f>
-        <v>0.086</v>
+        <v>0.072</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C26</f>
-        <v>-0.030</v>
+        <v>-0.035</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D26</f>
-        <v>-0.030</v>
+        <v>-0.036</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E26</f>
-        <v>-0.027</v>
-      </c>
-      <c r="F20" s="1" t="str">
+        <v>-0.056</v>
+      </c>
+      <c r="G20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F26</f>
-        <v>-0.053</v>
-      </c>
-      <c r="G20" s="1" t="str">
+        <v>0.034</v>
+      </c>
+      <c r="H20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G26</f>
-        <v>-0.048</v>
+        <v>-0.033</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H26</f>
-        <v>0.049</v>
+        <v>-0.035</v>
       </c>
       <c r="J20" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I26</f>
-        <v>-0.028</v>
-      </c>
-      <c r="K20" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J26</f>
-        <v>-0.028</v>
-      </c>
-      <c r="L20" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K26</f>
-        <v>-0.028</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L26</f>
-        <v>-0.050</v>
-      </c>
-      <c r="N20" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M26</f>
-        <v>-0.048</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B27</f>
-        <v>(0.070)</v>
+        <v>(0.067)</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C27</f>
-        <v>(0.057)</v>
+        <v>(0.054)</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D27</f>
-        <v>(0.057)</v>
+        <v>(0.056)</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E27</f>
+        <v>(0.055)</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>[1]did_reg_lg_total_d_noasist!F27</f>
         <v>(0.059)</v>
       </c>
-      <c r="F21" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!F27</f>
-        <v>(0.057)</v>
-      </c>
-      <c r="G21" s="1" t="str">
+      <c r="H21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G27</f>
-        <v>(0.058)</v>
+        <v>(0.048)</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H27</f>
-        <v>(0.062)</v>
+        <v>(0.055)</v>
       </c>
       <c r="J21" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I27</f>
-        <v>(0.051)</v>
-      </c>
-      <c r="K21" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J27</f>
-        <v>(0.054)</v>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K27</f>
-        <v>(0.058)</v>
-      </c>
-      <c r="M21" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L27</f>
         <v>(0.055)</v>
       </c>
-      <c r="N21" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M27</f>
-        <v>(0.057)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B29</f>
-        <v>67981</v>
+        <v>80857</v>
       </c>
       <c r="C23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C29</f>
-        <v>67981</v>
+        <v>80857</v>
       </c>
       <c r="D23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D29</f>
-        <v>67889</v>
+        <v>73944</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E29</f>
-        <v>62913</v>
-      </c>
-      <c r="F23" s="5" t="str">
+        <v>73944</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F29</f>
-        <v>67889</v>
-      </c>
-      <c r="G23" s="5" t="str">
+        <v>93726</v>
+      </c>
+      <c r="H23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G29</f>
-        <v>62913</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>93726</v>
+      </c>
       <c r="I23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H29</f>
-        <v>77331</v>
+        <v>79612</v>
       </c>
       <c r="J23" s="5" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I29</f>
-        <v>77331</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J29</f>
-        <v>77191</v>
-      </c>
-      <c r="L23" s="5" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K29</f>
-        <v>66839</v>
-      </c>
-      <c r="M23" s="5" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L29</f>
-        <v>77191</v>
-      </c>
-      <c r="N23" s="5" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M29</f>
-        <v>66839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>79612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B32</f>
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C32</f>
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="D24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D32</f>
-        <v>1910</v>
+        <v>1699</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E32</f>
-        <v>1677</v>
-      </c>
-      <c r="F24" s="1" t="str">
+        <v>1699</v>
+      </c>
+      <c r="G24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F32</f>
-        <v>1910</v>
-      </c>
-      <c r="G24" s="1" t="str">
+        <v>2427</v>
+      </c>
+      <c r="H24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G32</f>
-        <v>1677</v>
+        <v>2427</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H32</f>
-        <v>2425</v>
+        <v>2201</v>
       </c>
       <c r="J24" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I32</f>
-        <v>2425</v>
-      </c>
-      <c r="K24" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J32</f>
-        <v>2422</v>
-      </c>
-      <c r="L24" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K32</f>
-        <v>2132</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L32</f>
-        <v>2422</v>
-      </c>
-      <c r="N24" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M32</f>
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>[1]did_reg_lg_total_d_noasist!A30</f>
         <v>R-sq</v>
       </c>
       <c r="B25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B30</f>
-        <v>0.316</v>
+        <v>0.322</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C30</f>
-        <v>0.417</v>
+        <v>0.429</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D30</f>
-        <v>0.418</v>
+        <v>0.433</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E30</f>
-        <v>0.422</v>
-      </c>
-      <c r="F25" s="1" t="str">
+        <v>0.437</v>
+      </c>
+      <c r="G25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F30</f>
-        <v>0.422</v>
-      </c>
-      <c r="G25" s="1" t="str">
+        <v>0.308</v>
+      </c>
+      <c r="H25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G30</f>
-        <v>0.427</v>
+        <v>0.421</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H30</f>
-        <v>0.303</v>
+        <v>0.429</v>
       </c>
       <c r="J25" s="1" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I30</f>
-        <v>0.411</v>
-      </c>
-      <c r="K25" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J30</f>
-        <v>0.409</v>
-      </c>
-      <c r="L25" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K30</f>
-        <v>0.418</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L30</f>
-        <v>0.414</v>
-      </c>
-      <c r="N25" s="1" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M30</f>
-        <v>0.423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="str">
         <f>[1]did_reg_lg_total_d_noasist!A31</f>
         <v>DepVarMean</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!B31</f>
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="C26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!C31</f>
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="D26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!D31</f>
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="E26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!E31</f>
         <v>1.62</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!F31</f>
-        <v>1.56</v>
-      </c>
-      <c r="G26" s="3" t="str">
+        <v>1.47</v>
+      </c>
+      <c r="H26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!G31</f>
-        <v>1.62</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>1.47</v>
+      </c>
       <c r="I26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!H31</f>
-        <v>1.50</v>
+        <v>1.58</v>
       </c>
       <c r="J26" s="3" t="str">
         <f>[1]did_reg_lg_total_d_noasist!I31</f>
-        <v>1.50</v>
-      </c>
-      <c r="K26" s="3" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!J31</f>
-        <v>1.50</v>
-      </c>
-      <c r="L26" s="3" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!K31</f>
-        <v>1.59</v>
-      </c>
-      <c r="M26" s="3" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!L31</f>
-        <v>1.50</v>
-      </c>
-      <c r="N26" s="3" t="str">
-        <f>[1]did_reg_lg_total_d_noasist!M31</f>
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
